--- a/FF7R Weapon Skills.xlsx
+++ b/FF7R Weapon Skills.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="111">
   <si>
     <t>CLOUD</t>
   </si>
@@ -66,13 +66,13 @@
     <t>Magic Attack Power +5 with High HP</t>
   </si>
   <si>
-    <t>Physical Defense with High HP</t>
+    <t>Physical Defense +5 with High HP</t>
   </si>
   <si>
     <t>Limit Break 5% Boost with Low HP</t>
   </si>
   <si>
-    <t>Self Healing 50% Boost with Low HP</t>
+    <t>Self-Healing 50% Boost with Low HP</t>
   </si>
   <si>
     <t>Sub-Core III</t>
@@ -186,9 +186,6 @@
     <t>Concentration Activation 50%</t>
   </si>
   <si>
-    <t>Self-Healing 50% Boost with Low HP</t>
-  </si>
-  <si>
     <t>Metal Knuckles</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Sonic Strikers</t>
   </si>
   <si>
-    <t>Healing Spells MP Cost Reduction 10%</t>
-  </si>
-  <si>
     <t>Physical and Magic Defense +5 with High HP</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   </si>
   <si>
     <t>Light Machine Gun</t>
-  </si>
-  <si>
-    <t>Physical Defense +5 with High HP</t>
   </si>
   <si>
     <t>Light Machine Gun Sub-Core V</t>
@@ -295,9 +286,6 @@
   </si>
   <si>
     <t>Arcane Scepter</t>
-  </si>
-  <si>
-    <t>Attack Spells MP Cost Reduction 10%</t>
   </si>
   <si>
     <t>YUFFIE</t>
@@ -874,7 +862,7 @@
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>- Physical Defense with High HP</v>
+        <v>- Physical Defense +5 with High HP</v>
       </c>
     </row>
     <row r="23">
@@ -913,7 +901,7 @@
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>- Self Healing 50% Boost with Low HP</v>
+        <v>- Self-Healing 50% Boost with Low HP</v>
       </c>
     </row>
     <row r="26">
@@ -990,7 +978,7 @@
       <c r="A32" s="1"/>
       <c r="D32" s="1" t="str">
         <f>TEXTJOIN("\r\n",true,"\r\n",D17:D30)</f>
-        <v>\r\n\r\n&lt;color=white&gt;Core&lt;/color&gt;\r\n- Physical Damage Reduction 10% when Guarding\r\n- Punisher Mode Counter Damage 5% Boost\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Magic Attack Power +5 with High HP\r\n- Physical Defense with High HP\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Limit Break 5% Boost with Low HP\r\n- Self Healing 50% Boost with Low HP\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Trade-Off\r\n&lt;color=white&gt;Sub-Core V&lt;/color&gt;\r\n- Elemental Damage 5% Boost\r\n- Reprieve</v>
+        <v>\r\n\r\n&lt;color=white&gt;Core&lt;/color&gt;\r\n- Physical Damage Reduction 10% when Guarding\r\n- Punisher Mode Counter Damage 5% Boost\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Magic Attack Power +5 with High HP\r\n- Physical Defense +5 with High HP\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Limit Break 5% Boost with Low HP\r\n- Self-Healing 50% Boost with Low HP\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Trade-Off\r\n&lt;color=white&gt;Sub-Core V&lt;/color&gt;\r\n- Elemental Damage 5% Boost\r\n- Reprieve</v>
       </c>
     </row>
     <row r="33">
@@ -5540,7 +5528,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="str">
@@ -5566,7 +5554,7 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -5630,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5669,7 +5657,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5723,7 +5711,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5748,7 +5736,7 @@
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -5827,7 +5815,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5839,7 +5827,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5878,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5903,7 +5891,7 @@
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1"/>
     </row>
@@ -5955,7 +5943,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5979,7 +5967,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6030,7 +6018,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6082,7 +6070,7 @@
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1"/>
     </row>
@@ -6122,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6185,7 +6173,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6236,7 +6224,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6312,7 +6300,7 @@
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D87" s="1"/>
     </row>
@@ -6484,11 +6472,11 @@
         <v>5</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D101" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>- Healing Spells MP Cost Reduction 10%</v>
+        <v>- Healing Spells MP Cost Reduction 20%</v>
       </c>
     </row>
     <row r="102">
@@ -6496,7 +6484,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D102" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6511,7 +6499,7 @@
       <c r="A104" s="1"/>
       <c r="D104" s="1" t="str">
         <f>TEXTJOIN("\r\n",true,"\r\n",D89:D102)</f>
-        <v>\r\n\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Fire, Ice, Lightning and Wind Damage 5% Boost\r\n- Buff Duration 10% Boost\r\n- Inflicted Debuff Duration 10% Boost\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Elemental Materia Damage 10% Boost\r\n- Debuff Resistance +5\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Concentration Activation 50%\r\n&lt;color=white&gt;Sub-Core IV&lt;/color&gt;\r\n- MP Regeneration 50% Boost\r\n&lt;color=white&gt;Sub-Core V&lt;/color&gt;\r\n- Healing Spells MP Cost Reduction 10%\r\n- Physical and Magic Defense +5 with High HP</v>
+        <v>\r\n\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Fire, Ice, Lightning and Wind Damage 5% Boost\r\n- Buff Duration 10% Boost\r\n- Inflicted Debuff Duration 10% Boost\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Elemental Materia Damage 10% Boost\r\n- Debuff Resistance +5\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Concentration Activation 50%\r\n&lt;color=white&gt;Sub-Core IV&lt;/color&gt;\r\n- MP Regeneration 50% Boost\r\n&lt;color=white&gt;Sub-Core V&lt;/color&gt;\r\n- Healing Spells MP Cost Reduction 20%\r\n- Physical and Magic Defense +5 with High HP</v>
       </c>
     </row>
     <row r="105">
@@ -10123,7 +10111,7 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -10134,7 +10122,7 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -10162,7 +10150,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="str">
@@ -10216,7 +10204,7 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -10319,7 +10307,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10381,43 +10369,54 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Light Machine Gun Sub-Core V</v>
+        <v>&lt;color=white&gt;Light Machine Gun Sub-Core V&lt;/color&gt;</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Elemental Damage 5% Boost</v>
+        <v>- Elemental Damage 5% Boost</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1"/>
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Healing Spells MP Cost Reduction 20%</v>
+        <v>- Healing Spells MP Cost Reduction 20%</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Reprieve</v>
+        <v>- Reprieve</v>
       </c>
     </row>
     <row r="31">
@@ -10428,7 +10427,7 @@
       <c r="A32" s="1"/>
       <c r="D32" s="1" t="str">
         <f>TEXTJOIN("\r\n",true,"\r\n",D15:D30)</f>
-        <v>\r\n\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Attack Damage 5% Boost\r\n- Physical Damage Reduction 10% when Guarding\r\n- Buff Duration 10% Boost\r\n- Debuff Resistance +5\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Magic Attack Power +5 with High HP\r\n- Physical Defense +5 with High HP\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Limit Break Damage 5% Boost\r\n&lt;color=white&gt;Sub-Core IV&lt;/color&gt;\r\n- Stagger Siphon\r\nLight Machine Gun Sub-Core V\r\nElemental Damage 5% Boost\r\nHealing Spells MP Cost Reduction 20%\r\nReprieve</v>
+        <v>\r\n\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Attack Damage 5% Boost\r\n- Physical Damage Reduction 10% when Guarding\r\n- Buff Duration 10% Boost\r\n- Debuff Resistance +5\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Magic Attack Power +5 with High HP\r\n- Physical Defense +5 with High HP\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Limit Break Damage 5% Boost\r\n&lt;color=white&gt;Sub-Core IV&lt;/color&gt;\r\n- Stagger Siphon\r\n&lt;color=white&gt;Light Machine Gun Sub-Core V&lt;/color&gt;\r\n- Elemental Damage 5% Boost\r\n- Healing Spells MP Cost Reduction 20%\r\n- Reprieve</v>
       </c>
     </row>
     <row r="33">
@@ -10438,7 +10437,7 @@
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -10556,7 +10555,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="str">
         <f t="shared" si="3"/>
@@ -10606,7 +10605,7 @@
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -10634,7 +10633,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10646,7 +10645,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10670,7 +10669,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10761,7 +10760,7 @@
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1"/>
     </row>
@@ -10801,7 +10800,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10852,7 +10851,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10864,7 +10863,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10891,7 +10890,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D76" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10903,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10979,7 +10978,7 @@
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D85" s="1"/>
     </row>
@@ -11019,7 +11018,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11058,7 +11057,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D92" s="1" t="str">
         <f t="shared" si="6"/>
@@ -14799,7 +14798,7 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -14810,7 +14809,7 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -14851,7 +14850,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="str">
@@ -14972,7 +14971,7 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -15078,7 +15077,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15127,7 +15126,7 @@
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -15167,7 +15166,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -15333,7 +15332,7 @@
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D53" s="1"/>
     </row>
@@ -15400,7 +15399,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" si="4"/>
@@ -15437,7 +15436,7 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D64" s="1"/>
     </row>
@@ -15529,7 +15528,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D72" s="1" t="str">
         <f t="shared" si="5"/>
@@ -15556,7 +15555,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="5"/>
@@ -15568,7 +15567,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1" t="str">
         <f t="shared" si="5"/>
@@ -15593,7 +15592,7 @@
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -15738,11 +15737,11 @@
         <v>5</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D91" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>- Attack Spells MP Cost Reduction 10%</v>
+        <v>- Attack Spells MP Cost Reduction 20%</v>
       </c>
     </row>
     <row r="92">
@@ -15765,7 +15764,7 @@
       <c r="A94" s="1"/>
       <c r="D94" s="1" t="str">
         <f>TEXTJOIN("\r\n",true,"\r\n",D81:D92)</f>
-        <v>\r\n\r\n&lt;color=white&gt;Core&lt;/color&gt;\r\n- Inflicted Debuff Duration 10% Boost\r\n- Buff Duration 10% Boost\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Fire, Ice, Lightning and Wind Damage 5% Boost\r\n- Elemental Materia Damage 10% Boost\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Attack Damage 5% Boost\r\n- Stagger Siphon\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Attack Spells MP Cost Reduction 10%\r\n- MP Regeneration 10% Boost</v>
+        <v>\r\n\r\n&lt;color=white&gt;Core&lt;/color&gt;\r\n- Inflicted Debuff Duration 10% Boost\r\n- Buff Duration 10% Boost\r\n&lt;color=white&gt;Sub-Core I&lt;/color&gt;\r\n- Fire, Ice, Lightning and Wind Damage 5% Boost\r\n- Elemental Materia Damage 10% Boost\r\n&lt;color=white&gt;Sub-Core II&lt;/color&gt;\r\n- Attack Damage 5% Boost\r\n- Stagger Siphon\r\n&lt;color=white&gt;Sub-Core III&lt;/color&gt;\r\n- Attack Spells MP Cost Reduction 20%\r\n- MP Regeneration 10% Boost</v>
       </c>
     </row>
     <row r="95">
@@ -19377,7 +19376,7 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -19388,7 +19387,7 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -19416,7 +19415,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="str">
@@ -19429,7 +19428,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="str">
@@ -19470,7 +19469,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="str">
@@ -19511,7 +19510,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="str">
@@ -19593,7 +19592,7 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -19633,7 +19632,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -19645,7 +19644,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -19657,7 +19656,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -19669,7 +19668,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -19708,7 +19707,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -19720,7 +19719,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -19850,7 +19849,7 @@
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -19890,7 +19889,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D49" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19929,7 +19928,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19941,7 +19940,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20059,7 +20058,7 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D64" s="1"/>
     </row>
@@ -20087,7 +20086,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20162,7 +20161,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20315,7 +20314,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -20342,7 +20341,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D87" s="1" t="str">
         <f t="shared" si="4"/>
@@ -23973,7 +23972,7 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -23984,7 +23983,7 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -24012,7 +24011,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="str">
@@ -24068,7 +24067,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="str">
@@ -24081,7 +24080,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="str">
@@ -24135,7 +24134,7 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -24190,7 +24189,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -24242,7 +24241,7 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -24270,7 +24269,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="3"/>
@@ -24297,7 +24296,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="str">
@@ -24325,7 +24324,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="3"/>
